--- a/tests/test_inputs/test_inputs_Hospital_ExcelInput3.xlsx
+++ b/tests/test_inputs/test_inputs_Hospital_ExcelInput3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_development/tests/test_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/pyrecodes_hospitals/tests/test_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E5A8B-7345-3047-8DD4-4094620347B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DDE5F-42D3-B447-9541-3E8AB8498603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{8A19E584-5C10-AD41-83D9-0E8D98A88E8A}"/>
   </bookViews>
@@ -1591,18 +1591,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1635,6 +1623,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1962,7 +1962,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2025,7 +2025,7 @@
       <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="136" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="82" t="s">
@@ -2038,7 +2038,7 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="140"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="84" t="s">
         <v>82</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="140"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="86" t="s">
         <v>83</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="87" t="s">
         <v>84</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="N7" s="128"/>
     </row>
     <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="88" t="s">
         <v>85</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="29">
@@ -2122,7 +2122,7 @@
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="143"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="29">
         <v>0</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="143"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="30">
         <v>6</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="144"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="29">
         <v>50000</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="141" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="28">
@@ -2180,7 +2180,7 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="29">
         <v>100000000</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="146"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="28">
         <v>6</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="147"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="29">
         <v>30000</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="141" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="31">
@@ -2242,7 +2242,7 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="146"/>
+      <c r="B25" s="142"/>
       <c r="C25" s="29">
         <v>10000000</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="146"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="29">
         <v>6</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="147"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="31">
         <v>1000000</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="Q29" s="129"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="144" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="109" t="s">
@@ -2310,7 +2310,7 @@
       <c r="Q30" s="129"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="110" t="s">
         <v>82</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="Q31" s="129"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="110" t="s">
         <v>83</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="135" t="s">
+      <c r="B33" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="29">
@@ -2358,7 +2358,7 @@
       <c r="A34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="135"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="29">
         <v>720</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="135"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="29">
         <v>24</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="135"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="29">
         <v>96</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="A39" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="28">
@@ -2433,7 +2433,7 @@
       <c r="A40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="135"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="29">
         <v>10</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="A41" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="32">
         <v>80</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="148" t="s">
         <v>81</v>
       </c>
       <c r="C45" s="28">
@@ -2499,7 +2499,7 @@
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="138"/>
+      <c r="B46" s="149"/>
       <c r="C46" s="29">
         <v>37</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="138"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="29">
         <v>1</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="149" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="29">
@@ -2531,7 +2531,7 @@
       <c r="A49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="138"/>
+      <c r="B49" s="149"/>
       <c r="C49" s="29">
         <v>10</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="A50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="138"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="29">
         <v>1</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="149" t="s">
         <v>83</v>
       </c>
       <c r="C51" s="29">
@@ -2563,7 +2563,7 @@
       <c r="A52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="138"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="29">
         <v>60</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="A53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="138"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="29">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="A54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="139" t="s">
+      <c r="B54" s="135" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="29">
@@ -2595,7 +2595,7 @@
       <c r="A55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="139"/>
+      <c r="B55" s="135"/>
       <c r="C55" s="29">
         <v>150</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="A56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="139"/>
+      <c r="B56" s="135"/>
       <c r="C56" s="29">
         <v>0</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="29">
@@ -2627,7 +2627,7 @@
       <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="139"/>
+      <c r="B58" s="135"/>
       <c r="C58" s="29">
         <v>50</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="139"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="29">
         <v>0</v>
       </c>
@@ -11222,8 +11222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43DBB10-3E6D-464B-A3CE-124915F968B4}">
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12504,7 +12504,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
@@ -13498,18 +13498,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q22:Q29 W22:W29 E36:E43 E50:E57 E78:E85 E8:E15 K8:K15 E22:E29 K22:K29 Q8:Q15 E64:E71 K78:K85" xr:uid="{504019C3-7A7F-9F49-8A88-D2CEC545D45D}">
@@ -13533,7 +13533,7 @@
           <x14:formula1>
             <xm:f>ResourceSupply!$N$1:$R$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B2 H72 B72 B58 B44 B30 T16 N16 H16 B16 N2 H2</xm:sqref>
+          <xm:sqref>B2 H72 B72 B58 B44 H2 T16 N16 H16 B16 N2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
